--- a/DONE 2-2-2023/DE LARA, GRACE.xlsx
+++ b/DONE 2-2-2023/DE LARA, GRACE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\DONE 2-2-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B971C52-90DE-4A1F-8B66-38E9F87A25DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>PERIOD</t>
   </si>
@@ -207,7 +208,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -580,17 +581,11 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -604,20 +599,26 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1308,7 +1309,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1351,7 +1352,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1415,7 +1416,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1475,7 +1476,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1541,7 +1542,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1605,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1702,7 +1703,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1761,7 +1762,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1826,7 +1827,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1869,7 +1870,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1944,7 +1945,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2130,7 +2131,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2196,7 +2197,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2254,7 +2255,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,7 +2321,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2376,7 +2377,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2451,7 +2452,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2494,7 +2495,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2560,7 +2561,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2616,7 +2617,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2714,7 +2715,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2777,7 +2778,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2843,25 +2844,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K99" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K99" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2873,25 +2874,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2903,13 +2904,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2918,14 +2919,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3229,7 +3230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3239,7 +3240,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3247,95 +3248,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5535" topLeftCell="A37" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <pane ySplit="3720" topLeftCell="A29" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomLeft" activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="54">
         <v>44105</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3343,7 +3344,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3356,24 +3357,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3408,7 +3409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3427,12 +3428,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3450,7 +3451,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>44105</v>
       </c>
@@ -3470,7 +3471,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>44136</v>
       </c>
@@ -3490,7 +3491,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>44166</v>
       </c>
@@ -3510,7 +3511,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="48" t="s">
         <v>43</v>
       </c>
@@ -3528,7 +3529,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>44197</v>
       </c>
@@ -3550,11 +3551,11 @@
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="61">
+      <c r="K15" s="49">
         <v>44376</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>44228</v>
       </c>
@@ -3574,7 +3575,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>44256</v>
       </c>
@@ -3594,7 +3595,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>44287</v>
       </c>
@@ -3614,7 +3615,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>44317</v>
       </c>
@@ -3634,7 +3635,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>44348</v>
       </c>
@@ -3654,7 +3655,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>44378</v>
       </c>
@@ -3674,7 +3675,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>44409</v>
       </c>
@@ -3694,7 +3695,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>44440</v>
       </c>
@@ -3714,7 +3715,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>44470</v>
       </c>
@@ -3734,7 +3735,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44501</v>
       </c>
@@ -3760,7 +3761,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>44531</v>
       </c>
@@ -3784,7 +3785,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="48" t="s">
         <v>44</v>
       </c>
@@ -3802,7 +3803,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>44562</v>
       </c>
@@ -3822,7 +3823,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>44593</v>
       </c>
@@ -3842,7 +3843,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>44621</v>
       </c>
@@ -3866,7 +3867,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>44652</v>
       </c>
@@ -3886,7 +3887,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>44682</v>
       </c>
@@ -3906,7 +3907,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>44713</v>
       </c>
@@ -3926,7 +3927,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>44743</v>
       </c>
@@ -3946,7 +3947,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>44774</v>
       </c>
@@ -3966,11 +3967,13 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>44805</v>
       </c>
-      <c r="B36" s="20"/>
+      <c r="B36" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C36" s="13">
         <v>1.25</v>
       </c>
@@ -3981,12 +3984,16 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H36" s="39"/>
+      <c r="H36" s="39">
+        <v>1</v>
+      </c>
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="20"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="49">
+        <v>44813</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>44835</v>
       </c>
@@ -4006,7 +4013,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>44866</v>
       </c>
@@ -4026,7 +4033,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>44896</v>
       </c>
@@ -4050,7 +4057,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="48" t="s">
         <v>45</v>
       </c>
@@ -4068,7 +4075,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>44927</v>
       </c>
@@ -4088,7 +4095,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -4104,7 +4111,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -4120,7 +4127,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -4136,7 +4143,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -4152,7 +4159,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -4168,7 +4175,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -4184,7 +4191,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -4200,7 +4207,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -4216,7 +4223,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -4232,7 +4239,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -4248,7 +4255,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -4264,7 +4271,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -4280,7 +4287,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -4296,7 +4303,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -4312,7 +4319,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4328,7 +4335,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4344,7 +4351,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4360,7 +4367,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4376,7 +4383,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4392,7 +4399,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4408,7 +4415,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4424,7 +4431,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4440,7 +4447,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4456,7 +4463,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4472,7 +4479,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4488,7 +4495,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4504,7 +4511,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4520,7 +4527,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4536,7 +4543,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4552,7 +4559,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4568,7 +4575,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4584,7 +4591,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4600,7 +4607,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4616,7 +4623,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4632,7 +4639,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4648,7 +4655,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4664,7 +4671,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4680,7 +4687,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4696,7 +4703,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4712,7 +4719,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4728,7 +4735,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4744,7 +4751,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4760,7 +4767,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4776,7 +4783,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4792,7 +4799,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4808,7 +4815,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4824,7 +4831,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4840,7 +4847,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4856,7 +4863,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4872,7 +4879,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4888,7 +4895,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4904,7 +4911,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4920,7 +4927,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4936,7 +4943,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4952,7 +4959,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4968,7 +4975,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4984,7 +4991,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5000,7 +5007,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="41"/>
       <c r="B99" s="15"/>
       <c r="C99" s="42"/>
@@ -5018,23 +5025,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5057,98 +5064,98 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5535" topLeftCell="A7" activePane="bottomLeft"/>
+      <pane ySplit="5532" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="str">
+      <c r="B2" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
         <v>DE LARA, GRACE</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49" t="str">
+      <c r="B3" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B3:C3),"",'2018 LEAVE CREDITS'!B3:C3)</f>
         <v/>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="50"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5156,7 +5163,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5169,24 +5176,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5221,7 +5228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5245,7 +5252,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -5265,7 +5272,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40"/>
       <c r="B11" s="20"/>
       <c r="C11" s="13"/>
@@ -5281,7 +5288,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20"/>
       <c r="C12" s="13"/>
@@ -5297,7 +5304,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20"/>
       <c r="C13" s="13"/>
@@ -5313,7 +5320,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20"/>
       <c r="C14" s="13"/>
@@ -5329,7 +5336,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20"/>
       <c r="C15" s="13"/>
@@ -5345,7 +5352,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
       <c r="B16" s="15"/>
       <c r="C16" s="42"/>
@@ -5361,7 +5368,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
@@ -5377,7 +5384,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -5393,7 +5400,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
@@ -5409,7 +5416,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -5425,7 +5432,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -5441,7 +5448,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -5457,7 +5464,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -5473,7 +5480,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -5489,7 +5496,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -5505,7 +5512,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -5521,7 +5528,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -5537,7 +5544,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -5553,7 +5560,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -5569,7 +5576,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -5585,7 +5592,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -5601,7 +5608,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -5617,7 +5624,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -5633,7 +5640,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -5649,7 +5656,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -5665,7 +5672,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -5681,7 +5688,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -5697,7 +5704,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -5713,7 +5720,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -5729,7 +5736,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -5745,7 +5752,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -5761,7 +5768,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -5777,7 +5784,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -5793,7 +5800,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -5809,7 +5816,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -5825,7 +5832,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -5841,7 +5848,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -5857,7 +5864,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -5873,7 +5880,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -5889,7 +5896,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -5905,7 +5912,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -5921,7 +5928,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -5937,7 +5944,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -5953,7 +5960,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -5969,7 +5976,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -5985,7 +5992,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6001,7 +6008,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6017,7 +6024,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6033,7 +6040,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6049,7 +6056,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6065,7 +6072,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6081,7 +6088,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6097,7 +6104,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6113,7 +6120,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6129,7 +6136,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6145,7 +6152,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6161,7 +6168,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6177,7 +6184,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6193,7 +6200,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6209,7 +6216,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6225,7 +6232,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6241,7 +6248,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -6257,7 +6264,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -6273,7 +6280,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -6289,7 +6296,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -6305,7 +6312,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -6321,7 +6328,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -6337,7 +6344,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -6353,7 +6360,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -6369,7 +6376,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -6385,7 +6392,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -6401,7 +6408,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -6417,7 +6424,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -6433,7 +6440,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -6449,7 +6456,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -6465,7 +6472,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -6481,7 +6488,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -6497,7 +6504,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -6513,7 +6520,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -6529,7 +6536,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -6545,7 +6552,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -6561,7 +6568,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -6577,7 +6584,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -6593,7 +6600,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -6609,7 +6616,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -6625,7 +6632,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -6641,7 +6648,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -6657,7 +6664,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -6673,7 +6680,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -6689,7 +6696,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -6705,7 +6712,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -6721,7 +6728,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -6737,7 +6744,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -6753,7 +6760,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -6769,7 +6776,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -6785,7 +6792,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -6801,7 +6808,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -6817,7 +6824,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -6833,7 +6840,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -6849,7 +6856,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -6865,7 +6872,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -6881,7 +6888,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -6897,7 +6904,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -6913,7 +6920,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -6929,7 +6936,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -6945,7 +6952,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -6961,7 +6968,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -6977,7 +6984,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -6993,7 +7000,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7009,7 +7016,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7025,7 +7032,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7041,7 +7048,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7057,7 +7064,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7073,7 +7080,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -7089,7 +7096,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -7105,7 +7112,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -7121,7 +7128,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -7137,7 +7144,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -7153,7 +7160,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -7169,7 +7176,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -7200,10 +7207,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7226,7 +7233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -7234,34 +7241,34 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="59" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7290,7 +7297,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -7310,17 +7317,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7334,14 +7341,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7368,7 +7375,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7394,7 +7401,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7420,7 +7427,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7446,7 +7453,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7472,7 +7479,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7498,7 +7505,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7524,7 +7531,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7550,7 +7557,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7570,7 +7577,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7590,7 +7597,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7610,7 +7617,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7631,7 +7638,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7652,7 +7659,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7673,7 +7680,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7694,7 +7701,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7715,7 +7722,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7736,7 +7743,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7757,7 +7764,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7778,7 +7785,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7799,7 +7806,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7820,7 +7827,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7841,7 +7848,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7862,7 +7869,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7883,7 +7890,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7904,7 +7911,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7925,7 +7932,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7946,7 +7953,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7967,7 +7974,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7988,7 +7995,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8009,7 +8016,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8030,7 +8037,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8039,7 +8046,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8048,7 +8055,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8057,7 +8064,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8066,7 +8073,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8075,7 +8082,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8084,7 +8091,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8093,7 +8100,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8102,7 +8109,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8111,7 +8118,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8120,7 +8127,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8129,7 +8136,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8138,7 +8145,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8147,7 +8154,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8156,7 +8163,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8165,7 +8172,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8174,7 +8181,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8183,7 +8190,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8192,7 +8199,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8201,7 +8208,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8210,7 +8217,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8219,7 +8226,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8228,7 +8235,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8237,7 +8244,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8246,7 +8253,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8255,7 +8262,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8264,7 +8271,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8273,7 +8280,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8282,7 +8289,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8291,7 +8298,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
